--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_1_6.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_1_6.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-907920.2453104821</v>
+        <v>-852717.8402449645</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17372041.81341184</v>
+        <v>16750879.87194064</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.934248444</v>
+        <v>492028.9342484447</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9790679.15455799</v>
+        <v>9771818.81932196</v>
       </c>
     </row>
     <row r="11">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>280.2571473018467</v>
       </c>
       <c r="C2" t="n">
-        <v>424.2958575201043</v>
+        <v>432.5867644760053</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>215.5380824645131</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -713,13 +713,13 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>248.3482872511372</v>
       </c>
       <c r="X2" t="n">
         <v>14.9510387864824</v>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -826,16 +826,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>88.58760908856003</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>269.3061403695714</v>
@@ -883,7 +883,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>173.5591556145158</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>266.5025391737223</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
         <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
         <v>23.58875529488432</v>
@@ -911,10 +911,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,16 +944,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>69.00964097473501</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0.8069000430770075</v>
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>163.9353622244306</v>
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>199.3487361229525</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>11.78642779133981</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
         <v>269.3061403695714</v>
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>153.3454879781874</v>
       </c>
       <c r="C8" t="n">
         <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
         <v>23.58875529488432</v>
@@ -1148,10 +1148,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>65.80791137762</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1300,16 +1300,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>39.57637241135509</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,7 +1339,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
         <v>243.4206519573293</v>
@@ -1348,10 +1348,10 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>46.52756123591165</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
@@ -1373,16 +1373,16 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>276.3105981843394</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>169.6712868413756</v>
       </c>
       <c r="H11" t="n">
         <v>286.2388530112159</v>
@@ -1528,7 +1528,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>115.7595572937995</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
         <v>164.2192128704925</v>
@@ -1582,7 +1582,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6486707394257</v>
+        <v>220.5721336316178</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1607,7 +1607,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>294.663082979451</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
         <v>431.5506869772999</v>
@@ -1625,7 +1625,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791343072</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,7 +1658,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
         <v>256.6300796561533</v>
@@ -1780,7 +1780,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,16 +1813,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
-        <v>243.4206519573293</v>
+        <v>103.828474294603</v>
       </c>
       <c r="U16" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
-        <v>163.6395778340026</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
         <v>269.3061403695714</v>
@@ -1853,7 +1853,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>66.62423533023271</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
         <v>397.3838530629687</v>
@@ -1904,7 +1904,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>400.80690004308</v>
       </c>
       <c r="X17" t="n">
         <v>414.9510387864824</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>27.97358346682135</v>
       </c>
       <c r="C19" t="n">
         <v>170.8360944016073</v>
@@ -2017,7 +2017,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>120.1838601509832</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2068,7 +2068,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2093,13 +2093,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>327.0708075886636</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2251,13 +2251,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>128.7778691150967</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>24.34318456170439</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2302,7 +2302,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
         <v>225.1454739790328</v>
@@ -2491,10 +2491,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2533,7 +2533,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
-        <v>284.0859530482738</v>
+        <v>54.66258501924847</v>
       </c>
       <c r="W25" t="n">
         <v>269.3061403695714</v>
@@ -2728,10 +2728,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,19 +2758,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>18.05677735225706</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
-        <v>275.6486707394257</v>
+        <v>172.6623007436909</v>
       </c>
       <c r="V28" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>269.3061403695714</v>
@@ -2965,10 +2965,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,19 +2995,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
-        <v>275.6486707394257</v>
+        <v>172.6623007436909</v>
       </c>
       <c r="V31" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>269.3061403695714</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>173.6647221930499</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>154.6003840628599</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>147.9835025317452</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
-        <v>151.8247133730227</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
-        <v>158.704273159114</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>147.6996518856832</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>122.2674422277819</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>71.53763939432405</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>4.967932742934465</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>141.4132446762359</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
-        <v>227.1849416185819</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
-        <v>259.4129604006783</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V34" t="n">
-        <v>267.8502427095259</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
-        <v>253.070430030824</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
-        <v>226.7021267811743</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
-        <v>208.9097636402854</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="35">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>173.6647221930499</v>
+        <v>173.6647221930498</v>
       </c>
       <c r="C37" t="n">
         <v>154.6003840628599</v>
@@ -3433,13 +3433,13 @@
         <v>151.8247133730227</v>
       </c>
       <c r="F37" t="n">
-        <v>158.704273159114</v>
+        <v>158.7042731591139</v>
       </c>
       <c r="G37" t="n">
-        <v>147.6996518856832</v>
+        <v>147.6996518856831</v>
       </c>
       <c r="H37" t="n">
-        <v>122.2674422277819</v>
+        <v>122.2674422277818</v>
       </c>
       <c r="I37" t="n">
         <v>71.53763939432403</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>4.967932742934465</v>
+        <v>4.967932742934455</v>
       </c>
       <c r="S37" t="n">
         <v>141.4132446762359</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>66.57964473925399</v>
+        <v>66.57964473925398</v>
       </c>
       <c r="T38" t="n">
         <v>201.6308445169444</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>173.6647221930499</v>
+        <v>173.6647221930498</v>
       </c>
       <c r="C40" t="n">
         <v>154.6003840628599</v>
@@ -3670,16 +3670,16 @@
         <v>151.8247133730227</v>
       </c>
       <c r="F40" t="n">
-        <v>158.704273159114</v>
+        <v>158.7042731591139</v>
       </c>
       <c r="G40" t="n">
         <v>147.6996518856832</v>
       </c>
       <c r="H40" t="n">
-        <v>122.2674422277819</v>
+        <v>122.2674422277818</v>
       </c>
       <c r="I40" t="n">
-        <v>71.53763939432429</v>
+        <v>71.53763939432403</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>4.967932742934465</v>
+        <v>4.967932742934455</v>
       </c>
       <c r="S40" t="n">
         <v>141.4132446762359</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>4.967932742934465</v>
+        <v>4.967932742934044</v>
       </c>
       <c r="S43" t="n">
         <v>141.4132446762359</v>
@@ -4153,7 +4153,7 @@
         <v>122.2674422277819</v>
       </c>
       <c r="I46" t="n">
-        <v>71.53763939432345</v>
+        <v>71.53763939432405</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>4.967932742934465</v>
+        <v>4.967932742934472</v>
       </c>
       <c r="S46" t="n">
         <v>141.4132446762359</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1167.069156190556</v>
+        <v>471.5632689116212</v>
       </c>
       <c r="C2" t="n">
-        <v>738.4874819278243</v>
+        <v>34.60694115808042</v>
       </c>
       <c r="D2" t="n">
-        <v>706.6181011426729</v>
+        <v>34.60694115808042</v>
       </c>
       <c r="E2" t="n">
-        <v>676.8837603413722</v>
+        <v>34.60694115808042</v>
       </c>
       <c r="F2" t="n">
-        <v>653.056734790984</v>
+        <v>34.60694115808042</v>
       </c>
       <c r="G2" t="n">
-        <v>251.6589034142479</v>
+        <v>34.60694115808042</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>34.60694115808042</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>34.60694115808042</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>34.60694115808042</v>
       </c>
       <c r="K2" t="n">
-        <v>453.9965675465116</v>
+        <v>276.4103026572288</v>
       </c>
       <c r="L2" t="n">
-        <v>453.9965675465116</v>
+        <v>276.4103026572288</v>
       </c>
       <c r="M2" t="n">
-        <v>453.9965675465116</v>
+        <v>276.4103026572288</v>
       </c>
       <c r="N2" t="n">
-        <v>453.9965675465116</v>
+        <v>276.4103026572288</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>704.671199488474</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1132.932096319719</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>1561.192993150965</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>1730.347057904021</v>
       </c>
       <c r="S2" t="n">
-        <v>1613.531556264254</v>
+        <v>1646.695184087858</v>
       </c>
       <c r="T2" t="n">
-        <v>1613.531556264254</v>
+        <v>1646.695184087858</v>
       </c>
       <c r="U2" t="n">
-        <v>1613.531556264254</v>
+        <v>1387.472881404875</v>
       </c>
       <c r="V2" t="n">
-        <v>1613.531556264254</v>
+        <v>1024.855931338701</v>
       </c>
       <c r="W2" t="n">
-        <v>1612.716505715692</v>
+        <v>773.9990755294718</v>
       </c>
       <c r="X2" t="n">
-        <v>1597.614446335406</v>
+        <v>758.8970161491866</v>
       </c>
       <c r="Y2" t="n">
-        <v>1593.368726675464</v>
+        <v>754.651296489244</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>540.7786861493732</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295435</v>
+        <v>434.3222249860155</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>339.2319361325688</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>245.1115214595225</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>161.7276830756841</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539593</v>
+        <v>76.34259334186795</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>34.60694115808042</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>60.67061431853803</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>385.2289392847504</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>813.4898361159957</v>
       </c>
       <c r="L3" t="n">
-        <v>804.6185656731816</v>
+        <v>841.3249089743989</v>
       </c>
       <c r="M3" t="n">
-        <v>804.6185656731816</v>
+        <v>841.3249089743989</v>
       </c>
       <c r="N3" t="n">
-        <v>804.6185656731816</v>
+        <v>841.3249089743989</v>
       </c>
       <c r="O3" t="n">
-        <v>804.6185656731816</v>
+        <v>1269.585805805644</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1269.585805805644</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1697.846702636889</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>1697.846702636889</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>1634.391265085272</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>1504.212621415874</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1327.876074415842</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1128.758556477842</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>943.4358022110357</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>788.5683664499156</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>662.0825872291364</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>33.94366860160834</v>
+        <v>562.0180893612119</v>
       </c>
       <c r="C4" t="n">
-        <v>33.94366860160834</v>
+        <v>389.4563778444368</v>
       </c>
       <c r="D4" t="n">
-        <v>33.94366860160834</v>
+        <v>389.4563778444368</v>
       </c>
       <c r="E4" t="n">
-        <v>33.94366860160834</v>
+        <v>389.4563778444368</v>
       </c>
       <c r="F4" t="n">
-        <v>33.94366860160834</v>
+        <v>212.749323806193</v>
       </c>
       <c r="G4" t="n">
-        <v>33.94366860160834</v>
+        <v>123.2668903834051</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>123.2668903834051</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>34.60694115808042</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>121.1866263227703</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374338</v>
+        <v>395.9450808939059</v>
       </c>
       <c r="L4" t="n">
-        <v>813.4916901053949</v>
+        <v>814.1549626618669</v>
       </c>
       <c r="M4" t="n">
-        <v>813.4916901053949</v>
+        <v>1214.647389069347</v>
       </c>
       <c r="N4" t="n">
-        <v>813.4916901053949</v>
+        <v>1214.647389069347</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245743</v>
+        <v>1214.647389069347</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>1562.154283039689</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>1730.347057904021</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>1708.929236609393</v>
       </c>
       <c r="S4" t="n">
-        <v>1537.942061378414</v>
+        <v>1549.68786790739</v>
       </c>
       <c r="T4" t="n">
-        <v>1292.062614956869</v>
+        <v>1549.68786790739</v>
       </c>
       <c r="U4" t="n">
-        <v>1013.629614209975</v>
+        <v>1271.254867160495</v>
       </c>
       <c r="V4" t="n">
-        <v>726.6741060804052</v>
+        <v>1271.254867160495</v>
       </c>
       <c r="W4" t="n">
-        <v>454.6477016666967</v>
+        <v>999.2284627467866</v>
       </c>
       <c r="X4" t="n">
-        <v>209.2559470001092</v>
+        <v>753.8367080801991</v>
       </c>
       <c r="Y4" t="n">
-        <v>33.94366860160834</v>
+        <v>753.8367080801991</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>153.4764845146214</v>
+        <v>1270.561784452093</v>
       </c>
       <c r="C5" t="n">
-        <v>119.3744157384487</v>
+        <v>832.4193116355168</v>
       </c>
       <c r="D5" t="n">
-        <v>87.50503495329731</v>
+        <v>800.5499308503654</v>
       </c>
       <c r="E5" t="n">
-        <v>57.77069415199655</v>
+        <v>366.7751860086605</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>33.94366860160834</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>453.9965675465116</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>453.9965675465116</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M5" t="n">
-        <v>453.9965675465116</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N5" t="n">
-        <v>453.9965675465116</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O5" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1613.531556264254</v>
+        <v>2600.35411837614</v>
       </c>
       <c r="T5" t="n">
-        <v>1613.531556264254</v>
+        <v>2380.286891249179</v>
       </c>
       <c r="U5" t="n">
-        <v>1613.531556264254</v>
+        <v>2121.064588566196</v>
       </c>
       <c r="V5" t="n">
-        <v>1250.914606198081</v>
+        <v>2121.064588566196</v>
       </c>
       <c r="W5" t="n">
-        <v>1250.099555649518</v>
+        <v>2120.249538017633</v>
       </c>
       <c r="X5" t="n">
-        <v>830.9570922288289</v>
+        <v>1701.107074596944</v>
       </c>
       <c r="Y5" t="n">
-        <v>422.6709685284823</v>
+        <v>1292.820950896597</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>940.4401176967148</v>
+        <v>785.9943193530034</v>
       </c>
       <c r="C7" t="n">
-        <v>940.4401176967148</v>
+        <v>613.4326078362284</v>
       </c>
       <c r="D7" t="n">
-        <v>774.5621248982375</v>
+        <v>447.554615037751</v>
       </c>
       <c r="E7" t="n">
-        <v>604.8041211489747</v>
+        <v>447.554615037751</v>
       </c>
       <c r="F7" t="n">
-        <v>428.0970671107308</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G7" t="n">
-        <v>262.5057921365585</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>308.7021231727439</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>726.9120049407049</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>726.9120049407049</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>761.8145120199619</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>1181.483761245743</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T7" t="n">
-        <v>1697.183430080417</v>
+        <v>2288.039276714643</v>
       </c>
       <c r="U7" t="n">
-        <v>1697.183430080417</v>
+        <v>2009.606275967748</v>
       </c>
       <c r="V7" t="n">
-        <v>1685.277947462902</v>
+        <v>1722.650767838178</v>
       </c>
       <c r="W7" t="n">
-        <v>1413.251543049194</v>
+        <v>1450.62436342447</v>
       </c>
       <c r="X7" t="n">
-        <v>1167.859788382606</v>
+        <v>1205.232608757882</v>
       </c>
       <c r="Y7" t="n">
-        <v>940.4401176967148</v>
+        <v>977.8129380719906</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>860.3853338928202</v>
+        <v>577.3912258549058</v>
       </c>
       <c r="C8" t="n">
-        <v>826.2832651166475</v>
+        <v>543.2891570787331</v>
       </c>
       <c r="D8" t="n">
-        <v>794.4138843314961</v>
+        <v>107.3793722531775</v>
       </c>
       <c r="E8" t="n">
-        <v>360.6391394897913</v>
+        <v>77.64503145187676</v>
       </c>
       <c r="F8" t="n">
-        <v>336.812113939403</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G8" t="n">
-        <v>336.812113939403</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H8" t="n">
-        <v>47.68195938261932</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>47.68195938261932</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>482.9366468355372</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>482.9366468355372</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L8" t="n">
-        <v>482.9366468355372</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="M8" t="n">
-        <v>482.9366468355372</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="N8" t="n">
-        <v>488.3166236994861</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="O8" t="n">
-        <v>1078.3808710594</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="P8" t="n">
-        <v>1668.445118419314</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q8" t="n">
-        <v>2214.943904377909</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
-        <v>2384.097969130966</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2384.097969130966</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>2384.097969130966</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U8" t="n">
-        <v>2124.875666447982</v>
+        <v>2327.186649932281</v>
       </c>
       <c r="V8" t="n">
-        <v>1762.258716381809</v>
+        <v>1964.569699866108</v>
       </c>
       <c r="W8" t="n">
-        <v>1357.403261792842</v>
+        <v>1559.714245277141</v>
       </c>
       <c r="X8" t="n">
-        <v>1290.93062403767</v>
+        <v>1140.571781856452</v>
       </c>
       <c r="Y8" t="n">
-        <v>1286.684904377728</v>
+        <v>732.2856581561051</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>553.8537043739121</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>447.3972432105544</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>352.3069543571077</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>258.1865396840614</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>174.802701300223</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>89.41761156640685</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>47.68195938261932</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>73.74563254307692</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>398.3039575092892</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>988.3682048692032</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>1053.010004135013</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>1053.010004135013</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>1053.010004135013</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>1053.010004135013</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P9" t="n">
-        <v>1053.010004135013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1593.748942767088</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1710.921720861428</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1647.466283309811</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1517.287639640413</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1340.951092640381</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1141.83357470238</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>956.5108204355745</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>801.6433846744545</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>675.1576054536753</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1126.740119994501</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C10" t="n">
-        <v>954.1784084777256</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D10" t="n">
-        <v>788.3004156792483</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="E10" t="n">
-        <v>618.5424119299856</v>
+        <v>233.2795245870976</v>
       </c>
       <c r="F10" t="n">
-        <v>441.8353578917418</v>
+        <v>193.303390838254</v>
       </c>
       <c r="G10" t="n">
-        <v>276.2440829175695</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H10" t="n">
-        <v>136.341908607944</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I10" t="n">
-        <v>47.68195938261932</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>47.68195938261932</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>296.9692738283239</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>715.1791555962849</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>1174.663022777198</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1616.921825934842</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>2036.591075160624</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>2384.097969130966</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>2384.097969130966</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2362.680147836338</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>2362.680147836338</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>2116.800701414793</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>1838.367700667898</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>1791.370164065967</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>1791.370164065967</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>1545.97840939938</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y10" t="n">
-        <v>1318.558738713488</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1926.264419754193</v>
+        <v>2294.193217903703</v>
       </c>
       <c r="C11" t="n">
-        <v>1488.121946937616</v>
+        <v>1856.050745087126</v>
       </c>
       <c r="D11" t="n">
-        <v>1209.02033261</v>
+        <v>1420.14096026157</v>
       </c>
       <c r="E11" t="n">
-        <v>1209.02033261</v>
+        <v>986.3662154198655</v>
       </c>
       <c r="F11" t="n">
-        <v>781.1529030192075</v>
+        <v>558.4987858290733</v>
       </c>
       <c r="G11" t="n">
-        <v>379.7550716424714</v>
+        <v>387.1136476054616</v>
       </c>
       <c r="H11" t="n">
-        <v>90.62491708568768</v>
+        <v>97.98349304867787</v>
       </c>
       <c r="I11" t="n">
-        <v>90.20812771282769</v>
+        <v>97.56670367581788</v>
       </c>
       <c r="J11" t="n">
-        <v>525.4628151657455</v>
+        <v>97.56670367581788</v>
       </c>
       <c r="K11" t="n">
-        <v>525.4628151657455</v>
+        <v>931.9169956339958</v>
       </c>
       <c r="L11" t="n">
-        <v>581.9227074669418</v>
+        <v>2006.976961886855</v>
       </c>
       <c r="M11" t="n">
-        <v>1698.248287913184</v>
+        <v>2006.976961886855</v>
       </c>
       <c r="N11" t="n">
-        <v>2814.573868359427</v>
+        <v>3069.845642387192</v>
       </c>
       <c r="O11" t="n">
-        <v>3794.753534929733</v>
+        <v>4050.025308957499</v>
       </c>
       <c r="P11" t="n">
-        <v>3794.753534929733</v>
+        <v>4878.335183790894</v>
       </c>
       <c r="Q11" t="n">
-        <v>4341.252320888328</v>
+        <v>4878.335183790894</v>
       </c>
       <c r="R11" t="n">
-        <v>4510.406385641384</v>
+        <v>4878.335183790894</v>
       </c>
       <c r="S11" t="n">
-        <v>4426.754511825221</v>
+        <v>4794.683309974731</v>
       </c>
       <c r="T11" t="n">
-        <v>4206.68728469826</v>
+        <v>4574.61608284777</v>
       </c>
       <c r="U11" t="n">
-        <v>3947.464982015276</v>
+        <v>4315.393780164786</v>
       </c>
       <c r="V11" t="n">
-        <v>3584.848031949103</v>
+        <v>3952.776830098613</v>
       </c>
       <c r="W11" t="n">
-        <v>3179.992577360136</v>
+        <v>3547.921375509646</v>
       </c>
       <c r="X11" t="n">
-        <v>2760.850113939447</v>
+        <v>3128.778912088957</v>
       </c>
       <c r="Y11" t="n">
-        <v>2352.5639902391</v>
+        <v>2720.49278838861</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>596.3798727041204</v>
+        <v>603.7384486671107</v>
       </c>
       <c r="C12" t="n">
-        <v>489.9234115407627</v>
+        <v>497.2819875037529</v>
       </c>
       <c r="D12" t="n">
-        <v>394.833122687316</v>
+        <v>402.1916986503062</v>
       </c>
       <c r="E12" t="n">
-        <v>300.7127080142697</v>
+        <v>308.0712839772599</v>
       </c>
       <c r="F12" t="n">
-        <v>217.3288696304313</v>
+        <v>224.6874455934215</v>
       </c>
       <c r="G12" t="n">
-        <v>131.9437798966152</v>
+        <v>139.3023558596054</v>
       </c>
       <c r="H12" t="n">
-        <v>90.20812771282769</v>
+        <v>97.56670367581788</v>
       </c>
       <c r="I12" t="n">
-        <v>116.2718008732853</v>
+        <v>123.6303768362755</v>
       </c>
       <c r="J12" t="n">
-        <v>440.8301258394976</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="K12" t="n">
-        <v>1095.536172465221</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="L12" t="n">
-        <v>1095.536172465221</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="M12" t="n">
-        <v>1095.536172465221</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="N12" t="n">
-        <v>1095.536172465221</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="O12" t="n">
-        <v>1095.536172465221</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="P12" t="n">
-        <v>1095.536172465221</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="Q12" t="n">
-        <v>1636.275111097297</v>
+        <v>1643.633687060287</v>
       </c>
       <c r="R12" t="n">
-        <v>1753.447889191636</v>
+        <v>1760.806465154627</v>
       </c>
       <c r="S12" t="n">
-        <v>1689.992451640019</v>
+        <v>1697.35102760301</v>
       </c>
       <c r="T12" t="n">
-        <v>1559.813807970621</v>
+        <v>1567.172383933611</v>
       </c>
       <c r="U12" t="n">
-        <v>1383.477260970589</v>
+        <v>1390.83583693358</v>
       </c>
       <c r="V12" t="n">
-        <v>1184.359743032589</v>
+        <v>1191.718318995579</v>
       </c>
       <c r="W12" t="n">
-        <v>999.0369887657828</v>
+        <v>1006.395564728773</v>
       </c>
       <c r="X12" t="n">
-        <v>844.1695530046628</v>
+        <v>851.5281289676531</v>
       </c>
       <c r="Y12" t="n">
-        <v>717.6837737838836</v>
+        <v>725.0423497468738</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>778.284143835812</v>
+        <v>841.2755855642641</v>
       </c>
       <c r="C13" t="n">
-        <v>661.3552980844989</v>
+        <v>668.7138740474891</v>
       </c>
       <c r="D13" t="n">
-        <v>495.4773052860216</v>
+        <v>502.8358812490118</v>
       </c>
       <c r="E13" t="n">
-        <v>495.4773052860216</v>
+        <v>502.8358812490118</v>
       </c>
       <c r="F13" t="n">
-        <v>318.7702512477779</v>
+        <v>326.128827210768</v>
       </c>
       <c r="G13" t="n">
-        <v>318.7702512477779</v>
+        <v>326.128827210768</v>
       </c>
       <c r="H13" t="n">
-        <v>178.8680769381523</v>
+        <v>186.2266529011425</v>
       </c>
       <c r="I13" t="n">
-        <v>90.20812771282769</v>
+        <v>97.56670367581788</v>
       </c>
       <c r="J13" t="n">
-        <v>176.7878128775176</v>
+        <v>184.1463888405077</v>
       </c>
       <c r="K13" t="n">
-        <v>451.5462674486531</v>
+        <v>458.9048434116433</v>
       </c>
       <c r="L13" t="n">
-        <v>869.7561492166142</v>
+        <v>877.1147251796043</v>
       </c>
       <c r="M13" t="n">
-        <v>1329.240016397527</v>
+        <v>1336.598592360517</v>
       </c>
       <c r="N13" t="n">
-        <v>1771.498819555172</v>
+        <v>1778.857395518162</v>
       </c>
       <c r="O13" t="n">
-        <v>2191.168068780953</v>
+        <v>2198.526644743943</v>
       </c>
       <c r="P13" t="n">
-        <v>2538.674962751295</v>
+        <v>2546.033538714285</v>
       </c>
       <c r="Q13" t="n">
-        <v>2706.867737615627</v>
+        <v>2714.226313578617</v>
       </c>
       <c r="R13" t="n">
-        <v>2685.449916320999</v>
+        <v>2692.808492283989</v>
       </c>
       <c r="S13" t="n">
-        <v>2526.208547618996</v>
+        <v>2533.567123581985</v>
       </c>
       <c r="T13" t="n">
-        <v>2280.329101197451</v>
+        <v>2287.687677160441</v>
       </c>
       <c r="U13" t="n">
-        <v>2001.896100450556</v>
+        <v>2064.887542179009</v>
       </c>
       <c r="V13" t="n">
-        <v>1714.940592320987</v>
+        <v>1777.932034049439</v>
       </c>
       <c r="W13" t="n">
-        <v>1442.914187907278</v>
+        <v>1505.905629635731</v>
       </c>
       <c r="X13" t="n">
-        <v>1197.522433240691</v>
+        <v>1260.513874969143</v>
       </c>
       <c r="Y13" t="n">
-        <v>970.102762554799</v>
+        <v>1033.094204283251</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2381.038476629243</v>
+        <v>2528.900047651792</v>
       </c>
       <c r="C14" t="n">
-        <v>2083.398998872222</v>
+        <v>2090.757574835215</v>
       </c>
       <c r="D14" t="n">
-        <v>1647.489214046666</v>
+        <v>1654.84779000966</v>
       </c>
       <c r="E14" t="n">
-        <v>1213.714469204961</v>
+        <v>1221.073045167955</v>
       </c>
       <c r="F14" t="n">
-        <v>785.8470396141693</v>
+        <v>793.2056155771625</v>
       </c>
       <c r="G14" t="n">
-        <v>384.4492082374333</v>
+        <v>391.8077842004263</v>
       </c>
       <c r="H14" t="n">
-        <v>95.31905368064946</v>
+        <v>102.6776296436426</v>
       </c>
       <c r="I14" t="n">
-        <v>94.90226430778947</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J14" t="n">
-        <v>311.5605650630822</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K14" t="n">
-        <v>1145.91085702126</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L14" t="n">
-        <v>2220.97082327412</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="M14" t="n">
-        <v>2220.97082327412</v>
+        <v>1463.168637987183</v>
       </c>
       <c r="N14" t="n">
-        <v>2220.97082327412</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="O14" t="n">
-        <v>3201.150489844426</v>
+        <v>3569.079287993936</v>
       </c>
       <c r="P14" t="n">
-        <v>4029.460364677822</v>
+        <v>4397.389162827332</v>
       </c>
       <c r="Q14" t="n">
-        <v>4575.959150636417</v>
+        <v>4943.887948785927</v>
       </c>
       <c r="R14" t="n">
-        <v>4745.113215389473</v>
+        <v>5113.042013538983</v>
       </c>
       <c r="S14" t="n">
-        <v>4661.46134157331</v>
+        <v>5029.39013972282</v>
       </c>
       <c r="T14" t="n">
-        <v>4661.46134157331</v>
+        <v>4809.322912595859</v>
       </c>
       <c r="U14" t="n">
-        <v>4402.239038890327</v>
+        <v>4550.100609912875</v>
       </c>
       <c r="V14" t="n">
-        <v>4039.622088824153</v>
+        <v>4187.483659846702</v>
       </c>
       <c r="W14" t="n">
-        <v>3634.766634235187</v>
+        <v>3782.628205257735</v>
       </c>
       <c r="X14" t="n">
-        <v>3215.624170814498</v>
+        <v>3363.485741837046</v>
       </c>
       <c r="Y14" t="n">
-        <v>2807.338047114151</v>
+        <v>2955.199618136699</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>601.0740092990823</v>
+        <v>608.4325852620725</v>
       </c>
       <c r="C15" t="n">
-        <v>494.6175481357245</v>
+        <v>501.9761240987148</v>
       </c>
       <c r="D15" t="n">
-        <v>399.5272592822778</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E15" t="n">
-        <v>305.4068446092315</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F15" t="n">
-        <v>222.0230062253931</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>136.637916491577</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H15" t="n">
-        <v>94.90226430778947</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I15" t="n">
-        <v>120.9659374682471</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>445.5242624344594</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>1100.230309060183</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L15" t="n">
-        <v>1100.230309060183</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M15" t="n">
-        <v>1100.230309060183</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N15" t="n">
-        <v>1100.230309060183</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O15" t="n">
-        <v>1100.230309060183</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P15" t="n">
-        <v>1100.230309060183</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
-        <v>1640.969247692259</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
-        <v>1758.142025786598</v>
+        <v>1765.500601749589</v>
       </c>
       <c r="S15" t="n">
-        <v>1694.686588234981</v>
+        <v>1702.045164197972</v>
       </c>
       <c r="T15" t="n">
-        <v>1564.507944565583</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1388.171397565551</v>
+        <v>1395.529973528542</v>
       </c>
       <c r="V15" t="n">
-        <v>1189.053879627551</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>1003.731125360745</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>848.8636895996246</v>
+        <v>856.2222655626149</v>
       </c>
       <c r="Y15" t="n">
-        <v>722.3779103788454</v>
+        <v>729.7364863418356</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1085.300475694346</v>
+        <v>952.756877347711</v>
       </c>
       <c r="C16" t="n">
-        <v>912.7387641775712</v>
+        <v>780.1951658309359</v>
       </c>
       <c r="D16" t="n">
-        <v>746.8607713790939</v>
+        <v>614.3171730324586</v>
       </c>
       <c r="E16" t="n">
-        <v>577.1027676298311</v>
+        <v>444.5591692831958</v>
       </c>
       <c r="F16" t="n">
-        <v>400.3957135915873</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G16" t="n">
-        <v>234.8044386174149</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="H16" t="n">
-        <v>94.90226430778947</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I16" t="n">
-        <v>94.90226430778947</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J16" t="n">
-        <v>181.4819494724793</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>456.2404040436149</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L16" t="n">
-        <v>874.4502858115759</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1333.934152992489</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>1776.192956150133</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>2195.862205375915</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>2543.369099346256</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q16" t="n">
-        <v>2711.561874210589</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2711.561874210589</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S16" t="n">
-        <v>2711.561874210589</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T16" t="n">
-        <v>2465.682427789044</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U16" t="n">
-        <v>2187.249427042149</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V16" t="n">
-        <v>2021.956924179521</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W16" t="n">
-        <v>1749.930519765813</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X16" t="n">
-        <v>1504.538765099225</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y16" t="n">
-        <v>1277.119094413333</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2160.971249502282</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>1722.828776685705</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1286.91899186015</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>853.1442470184447</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>785.8470396141693</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>384.4492082374333</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
-        <v>95.31905368064946</v>
+        <v>102.6776296436397</v>
       </c>
       <c r="I17" t="n">
-        <v>94.90226430778947</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J17" t="n">
-        <v>530.1569517607074</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K17" t="n">
-        <v>1364.507243718885</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L17" t="n">
-        <v>2439.567209971744</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M17" t="n">
-        <v>2439.567209971744</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="N17" t="n">
-        <v>2439.567209971744</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="O17" t="n">
-        <v>3370.304554597482</v>
+        <v>3569.079287993936</v>
       </c>
       <c r="P17" t="n">
-        <v>4198.614429430878</v>
+        <v>4397.389162827332</v>
       </c>
       <c r="Q17" t="n">
-        <v>4745.113215389473</v>
+        <v>4943.887948785927</v>
       </c>
       <c r="R17" t="n">
-        <v>4745.113215389473</v>
+        <v>5113.042013538983</v>
       </c>
       <c r="S17" t="n">
-        <v>4661.46134157331</v>
+        <v>5029.39013972282</v>
       </c>
       <c r="T17" t="n">
-        <v>4441.394114446349</v>
+        <v>4809.322912595859</v>
       </c>
       <c r="U17" t="n">
-        <v>4182.171811763365</v>
+        <v>4550.100609912875</v>
       </c>
       <c r="V17" t="n">
-        <v>3819.554861697192</v>
+        <v>4187.483659846702</v>
       </c>
       <c r="W17" t="n">
-        <v>3414.699407108225</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X17" t="n">
-        <v>2995.556943687536</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2587.270819987189</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>601.0740092990823</v>
+        <v>608.4325852620725</v>
       </c>
       <c r="C18" t="n">
-        <v>494.6175481357245</v>
+        <v>501.9761240987148</v>
       </c>
       <c r="D18" t="n">
-        <v>399.5272592822778</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E18" t="n">
-        <v>305.4068446092315</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F18" t="n">
-        <v>222.0230062253931</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G18" t="n">
-        <v>136.637916491577</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H18" t="n">
-        <v>94.90226430778947</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I18" t="n">
-        <v>120.9659374682471</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>445.5242624344594</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>1100.230309060183</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L18" t="n">
-        <v>1100.230309060183</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M18" t="n">
-        <v>1100.230309060183</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N18" t="n">
-        <v>1100.230309060183</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O18" t="n">
-        <v>1100.230309060183</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P18" t="n">
-        <v>1100.230309060183</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1640.969247692259</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
-        <v>1758.142025786598</v>
+        <v>1765.500601749589</v>
       </c>
       <c r="S18" t="n">
-        <v>1694.686588234981</v>
+        <v>1702.045164197972</v>
       </c>
       <c r="T18" t="n">
-        <v>1564.507944565583</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U18" t="n">
-        <v>1388.171397565551</v>
+        <v>1395.529973528542</v>
       </c>
       <c r="V18" t="n">
-        <v>1189.053879627551</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W18" t="n">
-        <v>1003.731125360745</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X18" t="n">
-        <v>848.8636895996246</v>
+        <v>856.2222655626149</v>
       </c>
       <c r="Y18" t="n">
-        <v>722.3779103788454</v>
+        <v>729.7364863418356</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1034.058250610045</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C19" t="n">
-        <v>861.4965390932704</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D19" t="n">
-        <v>695.6185462947931</v>
+        <v>842.8792965674088</v>
       </c>
       <c r="E19" t="n">
-        <v>525.8605425455303</v>
+        <v>673.121292818146</v>
       </c>
       <c r="F19" t="n">
-        <v>349.1534885072865</v>
+        <v>496.4142387799022</v>
       </c>
       <c r="G19" t="n">
-        <v>183.5622135331141</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H19" t="n">
-        <v>183.5622135331141</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I19" t="n">
-        <v>94.90226430778947</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J19" t="n">
-        <v>181.4819494724793</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K19" t="n">
-        <v>456.2404040436149</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L19" t="n">
-        <v>874.4502858115759</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M19" t="n">
-        <v>1333.934152992489</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N19" t="n">
-        <v>1776.192956150133</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O19" t="n">
-        <v>2195.862205375915</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P19" t="n">
-        <v>2543.369099346256</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q19" t="n">
-        <v>2711.561874210589</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2711.561874210589</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S19" t="n">
-        <v>2590.164035674242</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T19" t="n">
-        <v>2344.284589252698</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U19" t="n">
-        <v>2065.851588505803</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V19" t="n">
-        <v>1778.896080376233</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W19" t="n">
-        <v>1506.869675962525</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X19" t="n">
-        <v>1261.477921295937</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y19" t="n">
-        <v>1034.058250610045</v>
+        <v>1209.575145798642</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2160.971249502281</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C20" t="n">
-        <v>1722.828776685704</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D20" t="n">
-        <v>1286.918991860149</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E20" t="n">
-        <v>853.1442470184438</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>425.2768174276516</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G20" t="n">
-        <v>94.90226430778945</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H20" t="n">
-        <v>94.90226430778945</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I20" t="n">
-        <v>94.90226430778945</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>530.1569517607073</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K20" t="n">
-        <v>1364.507243718885</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>2390.124888027175</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2390.124888027175</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N20" t="n">
-        <v>2390.124888027175</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O20" t="n">
-        <v>3370.304554597481</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P20" t="n">
-        <v>4198.614429430877</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4745.113215389472</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R20" t="n">
-        <v>4745.113215389472</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S20" t="n">
-        <v>4661.461341573309</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T20" t="n">
-        <v>4441.394114446348</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U20" t="n">
-        <v>4182.171811763365</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V20" t="n">
-        <v>3819.554861697191</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
-        <v>3414.699407108224</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>2995.556943687535</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2587.270819987189</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>601.0740092990823</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C21" t="n">
-        <v>494.6175481357245</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D21" t="n">
-        <v>399.5272592822778</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E21" t="n">
-        <v>305.4068446092315</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F21" t="n">
-        <v>222.0230062253931</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G21" t="n">
-        <v>136.637916491577</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H21" t="n">
-        <v>94.90226430778945</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>120.965937468247</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>445.5242624344594</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>1100.230309060183</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L21" t="n">
-        <v>1100.230309060183</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M21" t="n">
-        <v>1100.230309060183</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N21" t="n">
-        <v>1100.230309060183</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O21" t="n">
-        <v>1100.230309060183</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P21" t="n">
-        <v>1100.230309060183</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q21" t="n">
-        <v>1640.969247692259</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R21" t="n">
-        <v>1758.142025786598</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S21" t="n">
-        <v>1694.686588234981</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T21" t="n">
-        <v>1564.507944565583</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U21" t="n">
-        <v>1388.171397565551</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V21" t="n">
-        <v>1189.053879627551</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W21" t="n">
-        <v>1003.731125360745</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X21" t="n">
-        <v>848.8636895996246</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y21" t="n">
-        <v>722.3779103788454</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1049.787856391989</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C22" t="n">
-        <v>877.2261448752137</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D22" t="n">
-        <v>711.3481520767364</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E22" t="n">
-        <v>541.5901483274736</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F22" t="n">
-        <v>364.8830942892298</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G22" t="n">
-        <v>234.8044386174149</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="H22" t="n">
-        <v>94.90226430778945</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="I22" t="n">
-        <v>94.90226430778945</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J22" t="n">
-        <v>181.4819494724793</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K22" t="n">
-        <v>456.2404040436148</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L22" t="n">
-        <v>874.4502858115759</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M22" t="n">
-        <v>1333.934152992489</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N22" t="n">
-        <v>1776.192956150133</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O22" t="n">
-        <v>2195.862205375915</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P22" t="n">
-        <v>2543.369099346256</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q22" t="n">
-        <v>2711.561874210589</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2711.561874210589</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2552.320505508585</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T22" t="n">
-        <v>2306.441059087041</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U22" t="n">
-        <v>2028.008058340146</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V22" t="n">
-        <v>1741.052550210576</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W22" t="n">
-        <v>1469.026145796868</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X22" t="n">
-        <v>1469.026145796868</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y22" t="n">
-        <v>1241.606475110976</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="23">
@@ -5996,7 +5996,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N23" t="n">
         <v>2588.899621423627</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.7568773477108</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309357</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E25" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F25" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G25" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H25" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6169,28 +6169,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S25" t="n">
-        <v>2700.681281130895</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T25" t="n">
-        <v>2454.80183470935</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U25" t="n">
-        <v>2176.368833962455</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V25" t="n">
-        <v>1889.413325832886</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W25" t="n">
-        <v>1617.386921419177</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X25" t="n">
-        <v>1371.99516675259</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y25" t="n">
-        <v>1144.575496066698</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="26">
@@ -6306,19 +6306,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L27" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M27" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N27" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O27" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P27" t="n">
         <v>1107.588885023173</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>952.7568773477108</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C28" t="n">
-        <v>780.1951658309357</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D28" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E28" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F28" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G28" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H28" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6406,28 +6406,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S28" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T28" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U28" t="n">
-        <v>2176.368833962455</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="V28" t="n">
-        <v>1889.413325832886</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W28" t="n">
-        <v>1617.386921419177</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X28" t="n">
-        <v>1371.99516675259</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y28" t="n">
-        <v>1144.575496066698</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="29">
@@ -6461,28 +6461,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N29" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O29" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P29" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6543,19 +6543,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L30" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M30" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N30" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O30" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P30" t="n">
         <v>1107.588885023173</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>952.7568773477109</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C31" t="n">
-        <v>780.1951658309358</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D31" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E31" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F31" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G31" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H31" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6643,28 +6643,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S31" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T31" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U31" t="n">
-        <v>2176.368833962455</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="V31" t="n">
-        <v>1889.413325832886</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W31" t="n">
-        <v>1617.386921419177</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X31" t="n">
-        <v>1371.99516675259</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y31" t="n">
-        <v>1144.575496066698</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="32">
@@ -6786,13 +6786,13 @@
         <v>452.8828383974496</v>
       </c>
       <c r="M33" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N33" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O33" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P33" t="n">
         <v>1107.588885023173</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1066.521048992528</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>910.3590448886296</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>760.8807595030283</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>607.5224631666417</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>447.215116541274</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
-        <v>298.0235489799777</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
-        <v>174.5210820832282</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J34" t="n">
-        <v>204.9138786708294</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K34" t="n">
-        <v>495.7456864773249</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L34" t="n">
-        <v>930.0289214806457</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M34" t="n">
-        <v>1405.586141896919</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N34" t="n">
-        <v>1863.918298289923</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O34" t="n">
-        <v>2299.660900751064</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P34" t="n">
-        <v>2663.241147956766</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q34" t="n">
-        <v>2847.507276056458</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2842.489162174706</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2699.647500885579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T34" t="n">
-        <v>2470.16776187691</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U34" t="n">
-        <v>2208.134468542891</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>1937.578667826199</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
-        <v>1681.951970825367</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X34" t="n">
-        <v>1452.959923571655</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y34" t="n">
-        <v>1241.93996029864</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="35">
@@ -6944,7 +6944,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N35" t="n">
         <v>2588.899621423627</v>
@@ -7017,22 +7017,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L36" t="n">
-        <v>1107.588885023173</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="M36" t="n">
-        <v>1107.588885023173</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="N36" t="n">
-        <v>1107.588885023173</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="O36" t="n">
-        <v>1107.588885023173</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="P36" t="n">
-        <v>1107.588885023173</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="Q36" t="n">
         <v>1648.327823655249</v>
@@ -7072,16 +7072,16 @@
         <v>1066.521048992528</v>
       </c>
       <c r="C37" t="n">
-        <v>910.3590448886291</v>
+        <v>910.3590448886289</v>
       </c>
       <c r="D37" t="n">
         <v>760.8807595030278</v>
       </c>
       <c r="E37" t="n">
-        <v>607.5224631666414</v>
+        <v>607.5224631666412</v>
       </c>
       <c r="F37" t="n">
-        <v>447.2151165412737</v>
+        <v>447.2151165412736</v>
       </c>
       <c r="G37" t="n">
         <v>298.0235489799775</v>
@@ -7108,13 +7108,13 @@
         <v>1863.918298289923</v>
       </c>
       <c r="O37" t="n">
-        <v>2299.660900751065</v>
+        <v>2299.660900751064</v>
       </c>
       <c r="P37" t="n">
-        <v>2663.241147956767</v>
+        <v>2663.241147956766</v>
       </c>
       <c r="Q37" t="n">
-        <v>2847.507276056459</v>
+        <v>2847.507276056458</v>
       </c>
       <c r="R37" t="n">
         <v>2842.489162174706</v>
@@ -7126,7 +7126,7 @@
         <v>2470.16776187691</v>
       </c>
       <c r="U37" t="n">
-        <v>2208.134468542892</v>
+        <v>2208.134468542891</v>
       </c>
       <c r="V37" t="n">
         <v>1937.578667826198</v>
@@ -7135,7 +7135,7 @@
         <v>1681.951970825366</v>
       </c>
       <c r="X37" t="n">
-        <v>1452.959923571655</v>
+        <v>1452.959923571654</v>
       </c>
       <c r="Y37" t="n">
         <v>1241.939960298639</v>
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2425.39087720671</v>
+        <v>2425.390877206711</v>
       </c>
       <c r="C38" t="n">
         <v>2003.64811180301</v>
@@ -7157,10 +7157,10 @@
         <v>1584.13803439033</v>
       </c>
       <c r="E38" t="n">
-        <v>1166.762996961502</v>
+        <v>1166.762996961501</v>
       </c>
       <c r="F38" t="n">
-        <v>755.2952747835855</v>
+        <v>755.2952747835852</v>
       </c>
       <c r="G38" t="n">
         <v>370.2971508197255</v>
@@ -7178,34 +7178,34 @@
         <v>1367.171683086914</v>
       </c>
       <c r="L38" t="n">
-        <v>2354.192791675539</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="M38" t="n">
-        <v>2354.192791675539</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="N38" t="n">
-        <v>2354.192791675539</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="O38" t="n">
-        <v>3334.372458245845</v>
+        <v>3422.411315910079</v>
       </c>
       <c r="P38" t="n">
-        <v>4162.682333079241</v>
+        <v>4250.721190743476</v>
       </c>
       <c r="Q38" t="n">
-        <v>4709.181119037836</v>
+        <v>4797.21997670207</v>
       </c>
       <c r="R38" t="n">
         <v>4878.335183790892</v>
       </c>
       <c r="S38" t="n">
-        <v>4811.083017387606</v>
+        <v>4811.083017387605</v>
       </c>
       <c r="T38" t="n">
         <v>4607.41549767352</v>
       </c>
       <c r="U38" t="n">
-        <v>4364.592902403413</v>
+        <v>4364.592902403414</v>
       </c>
       <c r="V38" t="n">
         <v>4018.375659750116</v>
@@ -7214,7 +7214,7 @@
         <v>3629.919912574026</v>
       </c>
       <c r="X38" t="n">
-        <v>3227.177156566212</v>
+        <v>3227.177156566213</v>
       </c>
       <c r="Y38" t="n">
         <v>2835.290740278742</v>
@@ -7248,31 +7248,31 @@
         <v>97.56670367581785</v>
       </c>
       <c r="I39" t="n">
-        <v>97.56670367581785</v>
+        <v>123.6303768362754</v>
       </c>
       <c r="J39" t="n">
-        <v>400.344360043353</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="K39" t="n">
-        <v>400.344360043353</v>
+        <v>1128.922221872865</v>
       </c>
       <c r="L39" t="n">
-        <v>400.344360043353</v>
+        <v>1643.633687060287</v>
       </c>
       <c r="M39" t="n">
-        <v>400.344360043353</v>
+        <v>1643.633687060287</v>
       </c>
       <c r="N39" t="n">
-        <v>400.344360043353</v>
+        <v>1643.633687060287</v>
       </c>
       <c r="O39" t="n">
-        <v>400.344360043353</v>
+        <v>1643.633687060287</v>
       </c>
       <c r="P39" t="n">
-        <v>1220.067526522551</v>
+        <v>1643.633687060287</v>
       </c>
       <c r="Q39" t="n">
-        <v>1760.806465154627</v>
+        <v>1643.633687060287</v>
       </c>
       <c r="R39" t="n">
         <v>1760.806465154627</v>
@@ -7315,19 +7315,19 @@
         <v>756.1866229080661</v>
       </c>
       <c r="E40" t="n">
-        <v>602.8283265716796</v>
+        <v>602.8283265716797</v>
       </c>
       <c r="F40" t="n">
-        <v>442.5209799463122</v>
+        <v>442.5209799463119</v>
       </c>
       <c r="G40" t="n">
-        <v>293.329412385016</v>
+        <v>293.3294123850158</v>
       </c>
       <c r="H40" t="n">
-        <v>169.8269454882666</v>
+        <v>169.8269454882664</v>
       </c>
       <c r="I40" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="J40" t="n">
         <v>200.2197420758676</v>
@@ -7394,55 +7394,55 @@
         <v>1584.13803439033</v>
       </c>
       <c r="E41" t="n">
-        <v>1166.762996961501</v>
+        <v>1166.762996961502</v>
       </c>
       <c r="F41" t="n">
-        <v>755.2952747835852</v>
+        <v>755.2952747835855</v>
       </c>
       <c r="G41" t="n">
         <v>370.2971508197255</v>
       </c>
       <c r="H41" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I41" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J41" t="n">
         <v>532.8213911287357</v>
       </c>
       <c r="K41" t="n">
-        <v>1228.461808239092</v>
+        <v>1367.171683086914</v>
       </c>
       <c r="L41" t="n">
-        <v>1228.461808239092</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="M41" t="n">
-        <v>1228.461808239092</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="N41" t="n">
-        <v>2354.192791675539</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="O41" t="n">
-        <v>3334.372458245845</v>
+        <v>3422.411315910079</v>
       </c>
       <c r="P41" t="n">
-        <v>4162.682333079241</v>
+        <v>4250.721190743476</v>
       </c>
       <c r="Q41" t="n">
-        <v>4709.181119037836</v>
+        <v>4797.21997670207</v>
       </c>
       <c r="R41" t="n">
-        <v>4878.335183790892</v>
+        <v>4878.335183790891</v>
       </c>
       <c r="S41" t="n">
-        <v>4811.083017387606</v>
+        <v>4811.083017387605</v>
       </c>
       <c r="T41" t="n">
-        <v>4607.415497673521</v>
+        <v>4607.41549767352</v>
       </c>
       <c r="U41" t="n">
-        <v>4364.592902403414</v>
+        <v>4364.592902403413</v>
       </c>
       <c r="V41" t="n">
         <v>4018.375659750116</v>
@@ -7482,28 +7482,28 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H42" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I42" t="n">
         <v>123.6303768362754</v>
       </c>
       <c r="J42" t="n">
-        <v>448.1887018024878</v>
+        <v>448.1887018024877</v>
       </c>
       <c r="K42" t="n">
-        <v>448.1887018024878</v>
+        <v>448.1887018024877</v>
       </c>
       <c r="L42" t="n">
-        <v>448.1887018024878</v>
+        <v>448.1887018024877</v>
       </c>
       <c r="M42" t="n">
-        <v>448.1887018024878</v>
+        <v>448.1887018024877</v>
       </c>
       <c r="N42" t="n">
-        <v>448.1887018024878</v>
+        <v>448.1887018024877</v>
       </c>
       <c r="O42" t="n">
-        <v>448.1887018024878</v>
+        <v>448.1887018024877</v>
       </c>
       <c r="P42" t="n">
         <v>1102.894748428211</v>
@@ -7546,10 +7546,10 @@
         <v>1061.826912397566</v>
       </c>
       <c r="C43" t="n">
-        <v>905.6649082936672</v>
+        <v>905.6649082936674</v>
       </c>
       <c r="D43" t="n">
-        <v>756.1866229080661</v>
+        <v>756.1866229080662</v>
       </c>
       <c r="E43" t="n">
         <v>602.8283265716796</v>
@@ -7564,7 +7564,7 @@
         <v>169.8269454882664</v>
       </c>
       <c r="I43" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J43" t="n">
         <v>200.2197420758676</v>
@@ -7585,13 +7585,13 @@
         <v>2294.966764156103</v>
       </c>
       <c r="P43" t="n">
-        <v>2658.547011361805</v>
+        <v>2658.547011361804</v>
       </c>
       <c r="Q43" t="n">
-        <v>2842.813139461497</v>
+        <v>2842.813139461496</v>
       </c>
       <c r="R43" t="n">
-        <v>2837.795025579744</v>
+        <v>2837.795025579745</v>
       </c>
       <c r="S43" t="n">
         <v>2694.953364290617</v>
@@ -7634,7 +7634,7 @@
         <v>1166.762996961502</v>
       </c>
       <c r="F44" t="n">
-        <v>755.2952747835857</v>
+        <v>755.2952747835856</v>
       </c>
       <c r="G44" t="n">
         <v>370.2971508197255</v>
@@ -7646,28 +7646,28 @@
         <v>97.56670367581786</v>
       </c>
       <c r="J44" t="n">
-        <v>97.56670367581786</v>
+        <v>532.8213911287357</v>
       </c>
       <c r="K44" t="n">
-        <v>931.9169956339958</v>
+        <v>1367.171683086914</v>
       </c>
       <c r="L44" t="n">
-        <v>2006.976961886855</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="M44" t="n">
-        <v>2006.976961886855</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="N44" t="n">
-        <v>3132.707945323302</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="O44" t="n">
-        <v>4112.887611893609</v>
+        <v>3422.411315910079</v>
       </c>
       <c r="P44" t="n">
-        <v>4878.335183790893</v>
+        <v>4250.721190743476</v>
       </c>
       <c r="Q44" t="n">
-        <v>4878.335183790893</v>
+        <v>4797.21997670207</v>
       </c>
       <c r="R44" t="n">
         <v>4878.335183790893</v>
@@ -7688,7 +7688,7 @@
         <v>3629.919912574026</v>
       </c>
       <c r="X44" t="n">
-        <v>3227.177156566213</v>
+        <v>3227.177156566212</v>
       </c>
       <c r="Y44" t="n">
         <v>2835.290740278742</v>
@@ -7722,31 +7722,31 @@
         <v>97.56670367581786</v>
       </c>
       <c r="I45" t="n">
-        <v>123.6303768362755</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="J45" t="n">
-        <v>448.1887018024878</v>
+        <v>400.344360043353</v>
       </c>
       <c r="K45" t="n">
-        <v>448.1887018024878</v>
+        <v>400.344360043353</v>
       </c>
       <c r="L45" t="n">
-        <v>448.1887018024878</v>
+        <v>400.344360043353</v>
       </c>
       <c r="M45" t="n">
-        <v>448.1887018024878</v>
+        <v>400.344360043353</v>
       </c>
       <c r="N45" t="n">
-        <v>448.1887018024878</v>
+        <v>400.344360043353</v>
       </c>
       <c r="O45" t="n">
-        <v>448.1887018024878</v>
+        <v>400.344360043353</v>
       </c>
       <c r="P45" t="n">
-        <v>1102.894748428211</v>
+        <v>1220.067526522551</v>
       </c>
       <c r="Q45" t="n">
-        <v>1643.633687060287</v>
+        <v>1760.806465154627</v>
       </c>
       <c r="R45" t="n">
         <v>1760.806465154627</v>
@@ -7783,22 +7783,22 @@
         <v>1061.826912397566</v>
       </c>
       <c r="C46" t="n">
-        <v>905.6649082936667</v>
+        <v>905.6649082936674</v>
       </c>
       <c r="D46" t="n">
-        <v>756.1866229080656</v>
+        <v>756.1866229080662</v>
       </c>
       <c r="E46" t="n">
-        <v>602.828326571679</v>
+        <v>602.8283265716796</v>
       </c>
       <c r="F46" t="n">
-        <v>442.5209799463113</v>
+        <v>442.520979946312</v>
       </c>
       <c r="G46" t="n">
-        <v>293.3294123850151</v>
+        <v>293.3294123850158</v>
       </c>
       <c r="H46" t="n">
-        <v>169.8269454882658</v>
+        <v>169.8269454882664</v>
       </c>
       <c r="I46" t="n">
         <v>97.56670367581786</v>
@@ -7825,10 +7825,10 @@
         <v>2658.547011361804</v>
       </c>
       <c r="Q46" t="n">
-        <v>2842.813139461496</v>
+        <v>2842.813139461497</v>
       </c>
       <c r="R46" t="n">
-        <v>2837.795025579744</v>
+        <v>2837.795025579745</v>
       </c>
       <c r="S46" t="n">
         <v>2694.953364290617</v>
@@ -7837,7 +7837,7 @@
         <v>2465.473625281948</v>
       </c>
       <c r="U46" t="n">
-        <v>2203.440331947929</v>
+        <v>2203.44033194793</v>
       </c>
       <c r="V46" t="n">
         <v>1932.884531231236</v>
@@ -7846,7 +7846,7 @@
         <v>1677.257834230404</v>
       </c>
       <c r="X46" t="n">
-        <v>1448.265786976692</v>
+        <v>1448.265786976693</v>
       </c>
       <c r="Y46" t="n">
         <v>1237.245823703677</v>
@@ -7976,10 +7976,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>244.2458196961095</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7991,13 +7991,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>236.2898988798406</v>
+        <v>432.5867644760053</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>432.5867644760053</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>432.5867644760053</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8058,10 +8058,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>432.5867644760053</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>28.11623521050842</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8070,16 +8070,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>432.5867644760053</v>
       </c>
       <c r="P3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>432.5867644760053</v>
       </c>
       <c r="R3" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8143,13 +8143,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>404.5378044520003</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>371.7091627680287</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
@@ -8213,13 +8213,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8228,13 +8228,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,7 +8371,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -8380,10 +8380,10 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>35.25505765581499</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
@@ -8456,25 +8456,25 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>316.389926674475</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>5.434320064594829</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>596.0244922827414</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>596.0244922827414</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>596.0244922827414</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>65.2947467331411</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8547,7 +8547,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -8608,10 +8608,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>251.8053681269743</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
@@ -8629,7 +8629,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8687,31 +8687,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>57.03019424363265</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>1127.601596410346</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>1127.601596410346</v>
+        <v>1073.604727778118</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8924,19 +8924,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>218.8467684396896</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>92.22506899525956</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -9006,22 +9006,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9173,10 +9173,10 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>143.4079146352469</v>
       </c>
       <c r="O17" t="n">
-        <v>940.1387319451896</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
         <v>836.6766412458549</v>
@@ -9185,7 +9185,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,22 +9243,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -9404,10 +9404,10 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>1035.977418493222</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9480,7 +9480,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9495,7 +9495,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -9644,10 +9644,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9954,22 +9954,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -10109,31 +10109,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10191,22 +10191,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -10434,16 +10434,16 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -10592,10 +10592,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10665,10 +10665,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10683,7 +10683,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -10826,7 +10826,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>996.9910187763894</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>170.8626916697543</v>
+        <v>81.93455261497184</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10896,16 +10896,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>305.8360165328638</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11060,16 +11060,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>702.667087990259</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11081,7 +11081,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697543</v>
+        <v>81.93455261497093</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11154,7 +11154,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
         <v>842.7780726850283</v>
@@ -11306,19 +11306,19 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>773.1793655528127</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>81.93455261497274</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,10 +11370,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>327.836691885063</v>
+        <v>305.8360165328638</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>661.3192390158825</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22544,25 +22544,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>141.7794274782121</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1.174283612405645</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -23261,16 +23261,16 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>155.2400887929605</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>227.7125662215932</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>55.07653710780777</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>55.07653710780789</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>139.0979651089599</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>-2.909616991786379e-12</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23668,7 +23668,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -23701,16 +23701,16 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>139.5921776627263</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>120.4463752142712</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23741,7 +23741,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>356.9645199646516</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23792,7 +23792,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>-2.955857780762017e-12</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>189.9004325317972</v>
+        <v>161.9268490649759</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23905,7 +23905,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>37.46509486400015</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="20">
@@ -23981,13 +23981,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>70.31304547430517</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24139,13 +24139,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>35.15749310933387</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>63.43016517136702</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>229.4233680290254</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,19 +24646,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>102.9863699957348</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,19 +24883,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>102.9863699957348</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25090,10 +25090,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>4.281019982954604e-13</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>863967.8584200048</v>
+        <v>697064.4567560622</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>863967.8584200048</v>
+        <v>866462.1588315383</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>865728.9962816393</v>
+        <v>866462.1588315383</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>780759.4027881204</v>
+        <v>826947.1866186484</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>810223.2239689461</v>
+        <v>856411.0077994739</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>810223.2239689461</v>
+        <v>856411.0077994739</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>810223.223968946</v>
+        <v>856411.0077994737</v>
       </c>
     </row>
     <row r="9">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>871274.5850043637</v>
+        <v>856411.0077994737</v>
       </c>
     </row>
     <row r="13">
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>80422.09798356127</v>
+        <v>64766.9328730078</v>
       </c>
       <c r="C2" t="n">
-        <v>80422.09798356124</v>
+        <v>80422.09798356125</v>
       </c>
       <c r="D2" t="n">
         <v>80422.09798356125</v>
       </c>
       <c r="E2" t="n">
-        <v>72047.593211539</v>
+        <v>76309.749579917</v>
       </c>
       <c r="F2" t="n">
-        <v>74766.48125222488</v>
+        <v>79028.63762060287</v>
       </c>
       <c r="G2" t="n">
-        <v>74766.48125222488</v>
+        <v>79028.63762060287</v>
       </c>
       <c r="H2" t="n">
-        <v>74766.48125222487</v>
+        <v>79028.63762060282</v>
       </c>
       <c r="I2" t="n">
         <v>79028.63762060281</v>
@@ -26341,19 +26341,19 @@
         <v>79028.63762060281</v>
       </c>
       <c r="L2" t="n">
-        <v>80422.09798356135</v>
+        <v>79028.63762060282</v>
       </c>
       <c r="M2" t="n">
         <v>80422.09798356135</v>
       </c>
       <c r="N2" t="n">
-        <v>80422.09798356125</v>
+        <v>80422.09798356137</v>
       </c>
       <c r="O2" t="n">
-        <v>80422.09798356125</v>
+        <v>80422.09798356137</v>
       </c>
       <c r="P2" t="n">
-        <v>80422.0979835613</v>
+        <v>80422.09798356131</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>144969.7742714923</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>75898.49296044862</v>
       </c>
       <c r="D3" t="n">
-        <v>53344.06581631798</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>158717.2285962119</v>
+        <v>164835.5352679187</v>
       </c>
       <c r="F3" t="n">
         <v>16812.40227510025</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>24459.9984831789</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>113183.7314045599</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>60463.0632945904</v>
       </c>
       <c r="L3" t="n">
-        <v>56451.54017170849</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132471.1406570156</v>
+        <v>150566.26900885</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>175300.239865111</v>
+        <v>113918.1064200095</v>
       </c>
       <c r="C4" t="n">
-        <v>175300.2398651109</v>
+        <v>122130.8532251352</v>
       </c>
       <c r="D4" t="n">
-        <v>137759.2045276819</v>
+        <v>122130.8532251353</v>
       </c>
       <c r="E4" t="n">
-        <v>12986.84637693967</v>
+        <v>13755.1158988389</v>
       </c>
       <c r="F4" t="n">
-        <v>13476.93604859341</v>
+        <v>14245.20557049265</v>
       </c>
       <c r="G4" t="n">
-        <v>13476.93604859341</v>
+        <v>14245.20557049265</v>
       </c>
       <c r="H4" t="n">
-        <v>13476.93604859341</v>
+        <v>14245.20557049264</v>
       </c>
       <c r="I4" t="n">
         <v>14245.20557049264</v>
@@ -26445,19 +26445,19 @@
         <v>14245.20557049264</v>
       </c>
       <c r="L4" t="n">
-        <v>19587.56338712591</v>
+        <v>14245.20557049264</v>
       </c>
       <c r="M4" t="n">
         <v>19587.56338712591</v>
       </c>
       <c r="N4" t="n">
-        <v>29443.15222066924</v>
+        <v>29443.15222066925</v>
       </c>
       <c r="O4" t="n">
+        <v>29443.15222066922</v>
+      </c>
+      <c r="P4" t="n">
         <v>29443.15222066923</v>
-      </c>
-      <c r="P4" t="n">
-        <v>29443.15222066924</v>
       </c>
     </row>
     <row r="5">
@@ -26467,25 +26467,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>59928.87528014112</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>69865.88913079067</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>68558.17706174904</v>
+        <v>74150.69479362159</v>
       </c>
       <c r="F5" t="n">
-        <v>72125.72087391999</v>
+        <v>77718.23860579255</v>
       </c>
       <c r="G5" t="n">
-        <v>72125.72087391999</v>
+        <v>77718.23860579255</v>
       </c>
       <c r="H5" t="n">
-        <v>72125.72087391997</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26497,7 +26497,7 @@
         <v>77718.23860579252</v>
       </c>
       <c r="L5" t="n">
-        <v>79083.15853826067</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
         <v>79083.15853826067</v>
@@ -26506,7 +26506,7 @@
         <v>75515.61472608971</v>
       </c>
       <c r="O5" t="n">
-        <v>75515.61472608971</v>
+        <v>75515.6147260897</v>
       </c>
       <c r="P5" t="n">
         <v>75515.61472608973</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-296494.2306784819</v>
+        <v>-254310.7425171444</v>
       </c>
       <c r="C6" t="n">
-        <v>-154302.930018772</v>
+        <v>-191819.7727637803</v>
       </c>
       <c r="D6" t="n">
-        <v>-180547.0614912293</v>
+        <v>-115921.2798033317</v>
       </c>
       <c r="E6" t="n">
-        <v>-168214.6588233616</v>
+        <v>-176500.1355205229</v>
       </c>
       <c r="F6" t="n">
-        <v>-27648.57794538876</v>
+        <v>-29770.43317016522</v>
       </c>
       <c r="G6" t="n">
-        <v>-10836.1756702885</v>
+        <v>-12958.03089506497</v>
       </c>
       <c r="H6" t="n">
-        <v>-10836.17567028851</v>
+        <v>-12958.03089506487</v>
       </c>
       <c r="I6" t="n">
-        <v>-37394.80503886125</v>
+        <v>-12958.03089506499</v>
       </c>
       <c r="J6" t="n">
-        <v>-123949.2719006725</v>
+        <v>-126141.7622996249</v>
       </c>
       <c r="K6" t="n">
-        <v>-12934.80655568236</v>
+        <v>-73421.09418965538</v>
       </c>
       <c r="L6" t="n">
-        <v>-74700.16411353371</v>
+        <v>-12958.03089506498</v>
       </c>
       <c r="M6" t="n">
-        <v>-150719.7645988408</v>
+        <v>-168814.8929506752</v>
       </c>
       <c r="N6" t="n">
-        <v>-24536.66896319771</v>
+        <v>-24536.66896319759</v>
       </c>
       <c r="O6" t="n">
-        <v>-24536.66896319769</v>
+        <v>-24536.66896319755</v>
       </c>
       <c r="P6" t="n">
-        <v>-24536.66896319766</v>
+        <v>-24536.66896319765</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="N2" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="O2" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="P2" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
     <row r="3">
@@ -26787,25 +26787,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>432.5867644760053</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>596.0244922827414</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1127.601596410346</v>
+        <v>1219.583795947724</v>
       </c>
       <c r="F4" t="n">
-        <v>1186.278303847368</v>
+        <v>1278.260503384746</v>
       </c>
       <c r="G4" t="n">
-        <v>1186.278303847368</v>
+        <v>1278.260503384746</v>
       </c>
       <c r="H4" t="n">
-        <v>1186.278303847368</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="I4" t="n">
         <v>1278.260503384745</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>432.5867644760053</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>234.9284421318517</v>
       </c>
       <c r="D4" t="n">
-        <v>171.7286347626371</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>531.5771041276045</v>
+        <v>552.0685893398665</v>
       </c>
       <c r="F4" t="n">
         <v>58.67670743702229</v>
@@ -27030,19 +27030,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>91.98219953737726</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>432.5867644760053</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>234.9284421318517</v>
       </c>
       <c r="L4" t="n">
-        <v>171.7286347626371</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>531.5771041276045</v>
+        <v>552.0685893398665</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>432.5867644760053</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>234.9284421318517</v>
       </c>
       <c r="L4" t="n">
-        <v>171.7286347626371</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>531.5771041276045</v>
+        <v>552.0685893398665</v>
       </c>
       <c r="N4" t="n">
         <v>58.67670743702229</v>
@@ -27379,7 +27379,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>9.465190568306582</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
@@ -27388,13 +27388,13 @@
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>70.70077054670276</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -27433,13 +27433,13 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400</v>
+        <v>152.4586127919398</v>
       </c>
       <c r="X2" t="n">
         <v>400</v>
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>164.2192128704925</v>
@@ -27546,16 +27546,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>75.34775313587058</v>
       </c>
       <c r="H4" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,19 +27582,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>51.58631836451698</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>155.5340356063364</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27631,10 +27631,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,16 +27664,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>13.80571410326635</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>400</v>
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27819,19 +27819,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>44.07191583437682</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>272.299525256934</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>268.6910868018713</v>
       </c>
       <c r="C8" t="n">
         <v>400</v>
       </c>
       <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
         <v>400</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27868,10 +27868,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>217.8665548556918</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>349.1431274088624</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28020,16 +28020,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>135.3636110865062</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,7 +28059,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28068,10 +28068,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>237.5583918123622</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="C37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="D37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="E37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="F37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="G37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="H37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="I37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="J37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="K37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="L37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="M37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="N37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="O37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="P37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Q37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="R37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="S37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="T37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="U37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="V37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="W37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="X37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Y37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="C38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="D38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="E38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="F38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="G38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="H38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="I38" t="n">
         <v>0.4126214791313976</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="T38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="U38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="V38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="W38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="X38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Y38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="C40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="D40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="E40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="F40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="G40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="H40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="I40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="J40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="K40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="L40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="M40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="N40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="O40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="P40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Q40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="R40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="S40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="T40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="U40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="V40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="W40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="X40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Y40" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="C41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="D41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="E41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="F41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="G41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="H41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="T41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="U41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="V41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="W41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="X41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Y41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="C43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="D43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="E43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="F43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="G43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="H43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="I43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="J43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="K43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="L43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="M43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="N43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="O43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="P43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Q43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="R43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="S43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="T43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="U43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="V43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="W43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="X43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Y43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="C44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="D44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="E44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="F44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="G44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="H44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="T44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="U44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="V44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="W44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="X44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Y44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="C46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="D46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="E46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="F46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="G46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="H46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="I46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="J46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="K46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="L46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="M46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="N46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="O46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="P46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Q46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="R46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="S46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="T46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="U46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="V46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="W46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="X46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Y46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
   </sheetData>
@@ -34696,10 +34696,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>244.2458196961095</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34711,16 +34711,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>236.2898988798406</v>
+        <v>432.5867644760053</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>432.5867644760053</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>432.5867644760053</v>
       </c>
       <c r="R2" t="n">
-        <v>170.8626916697544</v>
+        <v>170.8626916697542</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34778,10 +34778,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>432.5867644760053</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>28.11623521050842</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34790,16 +34790,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>432.5867644760053</v>
       </c>
       <c r="P3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>432.5867644760053</v>
       </c>
       <c r="R3" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34863,13 +34863,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>404.5378044520003</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>371.7091627680287</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
@@ -34933,13 +34933,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34948,13 +34948,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,7 +35091,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -35100,16 +35100,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>35.25505765581499</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821539</v>
@@ -35176,25 +35176,25 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>316.389926674475</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>5.434320064594829</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>596.0244922827414</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>596.0244922827414</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,13 +35249,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>596.0244922827414</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>65.2947467331411</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35267,7 +35267,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>251.8053681269743</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>57.03019424363265</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>1127.601596410346</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>1127.601596410346</v>
+        <v>1073.604727778118</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35580,7 +35580,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512938</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35644,19 +35644,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>218.8467684396896</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>92.22506899525956</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35720,28 +35720,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J15" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473919</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
         <v>842.7780726850283</v>
@@ -35893,10 +35893,10 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>143.4079146352469</v>
       </c>
       <c r="O17" t="n">
-        <v>940.1387319451896</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
         <v>836.6766412458546</v>
@@ -35905,7 +35905,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,28 +35957,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J18" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36124,10 +36124,10 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
-        <v>1035.977418493222</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -36142,7 +36142,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,7 +36200,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36215,7 +36215,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -36364,10 +36364,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36674,22 +36674,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,22 +36911,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -37154,16 +37154,16 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>103.689937777828</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
-        <v>293.7695028348439</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>438.6699343467889</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
-        <v>480.360828703306</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N34" t="n">
-        <v>462.9617741343479</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>440.1440428900416</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P34" t="n">
-        <v>367.2527749552542</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q34" t="n">
-        <v>186.127402120901</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37312,10 +37312,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37385,10 +37385,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -37403,7 +37403,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -37461,13 +37461,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>103.689937777828</v>
+        <v>103.6899377778281</v>
       </c>
       <c r="K37" t="n">
         <v>293.7695028348439</v>
       </c>
       <c r="L37" t="n">
-        <v>438.6699343467889</v>
+        <v>438.6699343467888</v>
       </c>
       <c r="M37" t="n">
         <v>480.360828703306</v>
@@ -37476,13 +37476,13 @@
         <v>462.9617741343479</v>
       </c>
       <c r="O37" t="n">
-        <v>440.1440428900421</v>
+        <v>440.1440428900416</v>
       </c>
       <c r="P37" t="n">
-        <v>367.2527749552546</v>
+        <v>367.2527749552542</v>
       </c>
       <c r="Q37" t="n">
-        <v>186.1274021209015</v>
+        <v>186.127402120901</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37546,7 +37546,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>996.9910187763894</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -37558,13 +37558,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>170.862691669754</v>
+        <v>81.93455261497184</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,16 +37616,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>305.8360165328638</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>687.6096162327045</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -37637,13 +37637,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37780,28 +37780,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>702.667087990259</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>170.862691669754</v>
+        <v>81.93455261497093</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37874,7 +37874,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -37950,13 +37950,13 @@
         <v>462.9617741343479</v>
       </c>
       <c r="O43" t="n">
-        <v>440.1440428900421</v>
+        <v>440.1440428900416</v>
       </c>
       <c r="P43" t="n">
-        <v>367.2527749552546</v>
+        <v>367.2527749552542</v>
       </c>
       <c r="Q43" t="n">
-        <v>186.1274021209015</v>
+        <v>186.127402120901</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
         <v>842.7780726850283</v>
@@ -38026,19 +38026,19 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>990.0804712831382</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>773.1793655528127</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>81.93455261497274</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,10 +38090,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>327.836691885063</v>
+        <v>305.8360165328638</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -38111,13 +38111,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>661.3192390158825</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38193,7 +38193,7 @@
         <v>367.2527749552542</v>
       </c>
       <c r="Q46" t="n">
-        <v>186.127402120901</v>
+        <v>186.1274021209015</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
